--- a/CompanyWorkers.xlsx
+++ b/CompanyWorkers.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Academy\Selectors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bitlogix\RPA Development\Others\CloningGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969C6F4B-AA9F-4839-B9FD-1D823C3CF848}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -199,13 +198,13 @@
     <t>ADTalent</t>
   </si>
   <si>
-    <t>Impressive Tracks</t>
+    <t>Impressive Trackes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,6 +783,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B47328280439544AB5C41C56297158F8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37379e9f2bd6c2c1cc3fc4189b4f5c35">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="825ee06b-ca9e-4fae-a309-081319cc5c11" xmlns:ns3="328982d7-d2af-46e2-9ab4-9b069b3e82d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e8b561af0e8305711e3fb669b867239" ns2:_="" ns3:_="">
     <xsd:import namespace="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
@@ -994,29 +1008,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B2441B-C694-447D-826F-89CE0F6C6C68}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2075C800-09E6-46A5-AB5D-8418F74C0300}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF758AB-EFF2-456B-81E5-3C414956F590}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBF758AB-EFF2-456B-81E5-3C414956F590}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2075C800-09E6-46A5-AB5D-8418F74C0300}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B2441B-C694-447D-826F-89CE0F6C6C68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="825ee06b-ca9e-4fae-a309-081319cc5c11"/>
+    <ds:schemaRef ds:uri="328982d7-d2af-46e2-9ab4-9b069b3e82d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>